--- a/StructureDefinition-immunosuppresive-permanent-medication.xlsx
+++ b/StructureDefinition-immunosuppresive-permanent-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AI$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AI$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -744,7 +744,62 @@
     <t>medicationCodeableConcept</t>
   </si>
   <si>
+    <t>MedicationStatement.medication[x].id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>sct</t>
+  </si>
+  <si>
     <t>https://www.netzwerk-universitaetsmedizin.de/fhir/ValueSet/immunosuppressive-permament-medications</t>
+  </si>
+  <si>
+    <t>atc</t>
+  </si>
+  <si>
+    <t>https://www.netzwerk-universitaetsmedizin.de/fhir/ValueSet/immunosuppressive-permament-medications-atc</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
   </si>
   <si>
     <t>MedicationStatement.subject</t>
@@ -1078,25 +1133,6 @@
   </si>
   <si>
     <t>MedicationStatement.dosage.site.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
   </si>
   <si>
     <t>SNOMED</t>
@@ -1205,21 +1241,6 @@
   </si>
   <si>
     <t>MedicationStatement.dosage.site.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
   </si>
   <si>
     <t>MedicationStatement.dosage.route</t>
@@ -1786,7 +1807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI89"/>
+  <dimension ref="A1:AI95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1819,7 +1840,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="198.02734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="102.140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -4377,11 +4398,13 @@
         <v>69</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>69</v>
@@ -4414,9 +4437,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4430,26 +4453,24 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>69</v>
@@ -4498,56 +4519,56 @@
         <v>69</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>99</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4585,36 +4606,36 @@
         <v>69</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>194</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4622,13 +4643,13 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>69</v>
@@ -4637,18 +4658,20 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>69</v>
       </c>
@@ -4684,28 +4707,26 @@
         <v>69</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>90</v>
@@ -4713,9 +4734,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>69</v>
       </c>
@@ -4736,16 +4759,20 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>69</v>
       </c>
@@ -4769,13 +4796,11 @@
         <v>69</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>69</v>
@@ -4793,16 +4818,16 @@
         <v>69</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>90</v>
@@ -4810,9 +4835,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>69</v>
       </c>
@@ -4830,21 +4857,23 @@
         <v>69</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>69</v>
       </c>
@@ -4868,13 +4897,11 @@
         <v>69</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>69</v>
+        <v>241</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>69</v>
@@ -4892,24 +4919,24 @@
         <v>69</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>194</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4920,7 +4947,7 @@
         <v>70</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>69</v>
@@ -4929,21 +4956,23 @@
         <v>69</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>69</v>
       </c>
@@ -4991,24 +5020,24 @@
         <v>69</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>194</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5019,28 +5048,28 @@
         <v>70</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>260</v>
+        <v>192</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5066,13 +5095,13 @@
         <v>69</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>261</v>
+        <v>69</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>262</v>
+        <v>69</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>69</v>
@@ -5090,24 +5119,24 @@
         <v>69</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>90</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5118,7 +5147,7 @@
         <v>70</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -5127,19 +5156,19 @@
         <v>69</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5189,13 +5218,13 @@
         <v>69</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>89</v>
@@ -5204,9 +5233,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5214,31 +5243,31 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5288,13 +5317,13 @@
         <v>69</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>89</v>
@@ -5303,9 +5332,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5316,29 +5345,27 @@
         <v>70</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>69</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>69</v>
@@ -5387,13 +5414,13 @@
         <v>69</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>89</v>
@@ -5404,7 +5431,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5427,15 +5454,17 @@
         <v>69</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>92</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>69</v>
@@ -5484,7 +5513,7 @@
         <v>69</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>94</v>
+        <v>266</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>70</v>
@@ -5493,19 +5522,19 @@
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>69</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5524,16 +5553,16 @@
         <v>69</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>97</v>
+        <v>271</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5571,19 +5600,19 @@
         <v>69</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>104</v>
+        <v>270</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>70</v>
@@ -5595,16 +5624,16 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>105</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>281</v>
+        <v>69</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5617,26 +5646,24 @@
         <v>69</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>69</v>
       </c>
@@ -5660,13 +5687,13 @@
         <v>69</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>69</v>
+        <v>279</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>69</v>
@@ -5684,7 +5711,7 @@
         <v>69</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>70</v>
@@ -5696,12 +5723,12 @@
         <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5712,32 +5739,30 @@
         <v>70</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>69</v>
       </c>
@@ -5785,24 +5810,24 @@
         <v>69</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>90</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5813,32 +5838,30 @@
         <v>70</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>69</v>
       </c>
@@ -5886,13 +5909,13 @@
         <v>69</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>89</v>
@@ -5901,9 +5924,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5917,29 +5940,27 @@
         <v>71</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>69</v>
       </c>
@@ -5963,13 +5984,13 @@
         <v>69</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>303</v>
+        <v>69</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>304</v>
+        <v>69</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>69</v>
@@ -5987,7 +6008,7 @@
         <v>69</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>70</v>
@@ -6004,7 +6025,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6024,20 +6045,18 @@
         <v>69</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>307</v>
+        <v>92</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>69</v>
@@ -6086,7 +6105,7 @@
         <v>69</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>309</v>
+        <v>94</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>70</v>
@@ -6095,51 +6114,49 @@
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>311</v>
+        <v>97</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>312</v>
+        <v>98</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>313</v>
+        <v>99</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>69</v>
       </c>
@@ -6175,70 +6192,72 @@
         <v>69</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>316</v>
+        <v>104</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>69</v>
+        <v>299</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>69</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>318</v>
+        <v>97</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>69</v>
       </c>
@@ -6262,13 +6281,13 @@
         <v>69</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>322</v>
+        <v>69</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>323</v>
+        <v>69</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>69</v>
@@ -6286,24 +6305,24 @@
         <v>69</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6317,7 +6336,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>69</v>
@@ -6326,19 +6345,19 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>69</v>
@@ -6363,13 +6382,13 @@
         <v>69</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>330</v>
+        <v>69</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>331</v>
+        <v>69</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>69</v>
@@ -6387,7 +6406,7 @@
         <v>69</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>70</v>
@@ -6402,9 +6421,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6418,25 +6437,29 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>92</v>
+        <v>311</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>69</v>
       </c>
@@ -6484,7 +6507,7 @@
         <v>69</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>94</v>
+        <v>315</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>70</v>
@@ -6493,19 +6516,19 @@
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6521,21 +6544,23 @@
         <v>69</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>98</v>
+        <v>317</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>99</v>
+        <v>318</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>69</v>
       </c>
@@ -6559,31 +6584,31 @@
         <v>69</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>69</v>
+        <v>321</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>69</v>
+        <v>322</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>104</v>
+        <v>323</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>70</v>
@@ -6595,12 +6620,12 @@
         <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6611,10 +6636,10 @@
         <v>70</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>69</v>
@@ -6623,20 +6648,18 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>69</v>
       </c>
@@ -6672,23 +6695,25 @@
         <v>69</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AB49" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="AC49" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>89</v>
@@ -6697,13 +6722,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>69</v>
       </c>
@@ -6712,10 +6735,10 @@
         <v>70</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>69</v>
@@ -6724,19 +6747,19 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>131</v>
+        <v>329</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>69</v>
@@ -6746,7 +6769,7 @@
         <v>69</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>343</v>
+        <v>69</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>69</v>
@@ -6761,13 +6784,13 @@
         <v>69</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>344</v>
+        <v>69</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>345</v>
+        <v>69</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>69</v>
@@ -6785,13 +6808,13 @@
         <v>69</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>89</v>
@@ -6802,7 +6825,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6822,18 +6845,20 @@
         <v>69</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>92</v>
+        <v>337</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>69</v>
@@ -6858,13 +6883,13 @@
         <v>69</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>69</v>
+        <v>340</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>69</v>
@@ -6882,7 +6907,7 @@
         <v>69</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>94</v>
+        <v>342</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>70</v>
@@ -6891,49 +6916,51 @@
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>99</v>
+        <v>345</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>69</v>
       </c>
@@ -6957,48 +6984,48 @@
         <v>69</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>69</v>
+        <v>348</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>104</v>
+        <v>350</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7006,35 +7033,31 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>349</v>
+        <v>92</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>69</v>
       </c>
@@ -7082,7 +7105,7 @@
         <v>69</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>353</v>
+        <v>94</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>70</v>
@@ -7091,26 +7114,26 @@
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>69</v>
@@ -7119,19 +7142,19 @@
         <v>69</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>355</v>
+        <v>98</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>356</v>
+        <v>99</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>357</v>
+        <v>100</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7169,36 +7192,36 @@
         <v>69</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>358</v>
+        <v>104</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7206,10 +7229,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -7221,19 +7244,19 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>360</v>
+        <v>232</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>361</v>
+        <v>233</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>362</v>
+        <v>235</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>69</v>
@@ -7270,25 +7293,23 @@
         <v>69</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="AB55" s="2"/>
       <c r="AC55" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>363</v>
+        <v>237</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>89</v>
@@ -7299,9 +7320,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="C56" t="s" s="2">
         <v>69</v>
       </c>
@@ -7310,7 +7333,7 @@
         <v>70</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>69</v>
@@ -7322,19 +7345,19 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>365</v>
+        <v>232</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>366</v>
+        <v>233</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>367</v>
+        <v>235</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>69</v>
@@ -7344,7 +7367,7 @@
         <v>69</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>69</v>
+        <v>355</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>69</v>
@@ -7359,13 +7382,13 @@
         <v>69</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>69</v>
+        <v>356</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>69</v>
+        <v>357</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>69</v>
@@ -7383,13 +7406,13 @@
         <v>69</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>368</v>
+        <v>237</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>89</v>
@@ -7400,7 +7423,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7420,23 +7443,19 @@
         <v>69</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>371</v>
+        <v>92</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>69</v>
       </c>
@@ -7484,7 +7503,7 @@
         <v>69</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>375</v>
+        <v>94</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>70</v>
@@ -7493,26 +7512,26 @@
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>69</v>
@@ -7521,23 +7540,21 @@
         <v>69</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>377</v>
+        <v>98</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>378</v>
+        <v>99</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>69</v>
       </c>
@@ -7573,36 +7590,36 @@
         <v>69</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>381</v>
+        <v>104</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7610,7 +7627,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>77</v>
@@ -7625,19 +7642,19 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>217</v>
+        <v>363</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>69</v>
@@ -7662,13 +7679,13 @@
         <v>69</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>386</v>
+        <v>69</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>387</v>
+        <v>69</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>69</v>
@@ -7686,7 +7703,7 @@
         <v>69</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>70</v>
@@ -7703,7 +7720,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7723,18 +7740,20 @@
         <v>69</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>92</v>
+        <v>367</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>69</v>
@@ -7783,7 +7802,7 @@
         <v>69</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>94</v>
+        <v>370</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>70</v>
@@ -7792,49 +7811,51 @@
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>98</v>
+        <v>372</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>99</v>
+        <v>373</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>69</v>
       </c>
@@ -7870,36 +7891,36 @@
         <v>69</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>104</v>
+        <v>375</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7910,10 +7931,10 @@
         <v>70</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>69</v>
@@ -7922,19 +7943,19 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>69</v>
@@ -7971,23 +7992,25 @@
         <v>69</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AB62" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="AC62" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>89</v>
@@ -7996,13 +8019,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
         <v>69</v>
       </c>
@@ -8011,10 +8032,10 @@
         <v>70</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>69</v>
@@ -8023,19 +8044,19 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>131</v>
+        <v>382</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>69</v>
@@ -8045,7 +8066,7 @@
         <v>69</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>393</v>
+        <v>69</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>69</v>
@@ -8060,13 +8081,13 @@
         <v>69</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>394</v>
+        <v>69</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>395</v>
+        <v>69</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>69</v>
@@ -8084,13 +8105,13 @@
         <v>69</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>89</v>
@@ -8101,7 +8122,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8121,19 +8142,23 @@
         <v>69</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>69</v>
       </c>
@@ -8181,7 +8206,7 @@
         <v>69</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>70</v>
@@ -8190,49 +8215,51 @@
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>98</v>
+        <v>390</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>99</v>
+        <v>391</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>69</v>
       </c>
@@ -8256,48 +8283,48 @@
         <v>69</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>69</v>
+        <v>393</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>69</v>
+        <v>394</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>104</v>
+        <v>395</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8305,35 +8332,31 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>349</v>
+        <v>92</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>69</v>
       </c>
@@ -8381,7 +8404,7 @@
         <v>69</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>353</v>
+        <v>94</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>70</v>
@@ -8390,26 +8413,26 @@
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>69</v>
@@ -8418,19 +8441,19 @@
         <v>69</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>355</v>
+        <v>98</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>356</v>
+        <v>99</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>357</v>
+        <v>100</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8468,36 +8491,36 @@
         <v>69</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>358</v>
+        <v>104</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8505,10 +8528,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>78</v>
@@ -8520,19 +8543,19 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>360</v>
+        <v>232</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>361</v>
+        <v>233</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>362</v>
+        <v>235</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>69</v>
@@ -8569,25 +8592,23 @@
         <v>69</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="AB68" s="2"/>
       <c r="AC68" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>363</v>
+        <v>237</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>89</v>
@@ -8596,11 +8617,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="C69" t="s" s="2">
         <v>69</v>
       </c>
@@ -8609,10 +8632,10 @@
         <v>70</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>69</v>
@@ -8621,19 +8644,19 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>365</v>
+        <v>232</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>366</v>
+        <v>233</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>367</v>
+        <v>235</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>69</v>
@@ -8643,7 +8666,7 @@
         <v>69</v>
       </c>
       <c r="R69" t="s" s="2">
-        <v>69</v>
+        <v>400</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>69</v>
@@ -8658,13 +8681,13 @@
         <v>69</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>69</v>
+        <v>401</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>69</v>
+        <v>402</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>69</v>
@@ -8682,13 +8705,13 @@
         <v>69</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>368</v>
+        <v>237</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>89</v>
@@ -8699,7 +8722,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8719,23 +8742,19 @@
         <v>69</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>371</v>
+        <v>92</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>69</v>
       </c>
@@ -8783,7 +8802,7 @@
         <v>69</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>375</v>
+        <v>94</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>70</v>
@@ -8792,21 +8811,19 @@
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -8816,29 +8833,27 @@
         <v>71</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>336</v>
+        <v>98</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>337</v>
+        <v>99</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>69</v>
       </c>
@@ -8847,7 +8862,7 @@
         <v>69</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>343</v>
+        <v>69</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>69</v>
@@ -8874,19 +8889,19 @@
         <v>69</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>341</v>
+        <v>104</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>70</v>
@@ -8898,12 +8913,12 @@
         <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8911,31 +8926,35 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>92</v>
+        <v>361</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>69</v>
       </c>
@@ -8983,7 +9002,7 @@
         <v>69</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>94</v>
+        <v>365</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>70</v>
@@ -8992,26 +9011,26 @@
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>69</v>
@@ -9020,19 +9039,19 @@
         <v>69</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>98</v>
+        <v>367</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>99</v>
+        <v>368</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>100</v>
+        <v>369</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9070,36 +9089,36 @@
         <v>69</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>104</v>
+        <v>370</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9122,19 +9141,19 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>69</v>
@@ -9183,7 +9202,7 @@
         <v>69</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>70</v>
@@ -9200,7 +9219,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9226,15 +9245,17 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>69</v>
       </c>
@@ -9282,7 +9303,7 @@
         <v>69</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>70</v>
@@ -9297,9 +9318,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9307,13 +9328,13 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>69</v>
@@ -9322,19 +9343,19 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>153</v>
+        <v>382</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>295</v>
+        <v>385</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>69</v>
@@ -9383,7 +9404,7 @@
         <v>69</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>70</v>
@@ -9398,11 +9419,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="C77" t="s" s="2">
         <v>69</v>
       </c>
@@ -9411,10 +9434,10 @@
         <v>70</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>69</v>
@@ -9423,19 +9446,19 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>365</v>
+        <v>232</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>366</v>
+        <v>233</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>367</v>
+        <v>235</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>69</v>
@@ -9445,7 +9468,7 @@
         <v>69</v>
       </c>
       <c r="R77" t="s" s="2">
-        <v>69</v>
+        <v>355</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>69</v>
@@ -9484,13 +9507,13 @@
         <v>69</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>368</v>
+        <v>237</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>89</v>
@@ -9501,7 +9524,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9521,23 +9544,19 @@
         <v>69</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>371</v>
+        <v>92</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>69</v>
       </c>
@@ -9585,7 +9604,7 @@
         <v>69</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>375</v>
+        <v>94</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>70</v>
@@ -9594,26 +9613,26 @@
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>69</v>
@@ -9622,23 +9641,21 @@
         <v>69</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>377</v>
+        <v>98</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>378</v>
+        <v>99</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>69</v>
       </c>
@@ -9674,36 +9691,36 @@
         <v>69</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>381</v>
+        <v>104</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9711,13 +9728,13 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>69</v>
@@ -9726,19 +9743,19 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>69</v>
@@ -9763,13 +9780,13 @@
         <v>69</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>409</v>
+        <v>69</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>410</v>
+        <v>69</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>69</v>
@@ -9787,7 +9804,7 @@
         <v>69</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>70</v>
@@ -9802,9 +9819,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9815,10 +9832,10 @@
         <v>70</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>69</v>
@@ -9827,15 +9844,17 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>69</v>
@@ -9884,13 +9903,13 @@
         <v>69</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>89</v>
@@ -9899,9 +9918,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9909,31 +9928,35 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>92</v>
+        <v>372</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>69</v>
       </c>
@@ -9981,7 +10004,7 @@
         <v>69</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>94</v>
+        <v>375</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>70</v>
@@ -9990,26 +10013,26 @@
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>69</v>
@@ -10018,21 +10041,23 @@
         <v>69</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>98</v>
+        <v>377</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>99</v>
+        <v>378</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>69</v>
       </c>
@@ -10068,36 +10093,36 @@
         <v>69</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>104</v>
+        <v>380</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10120,19 +10145,19 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>208</v>
+        <v>382</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>217</v>
+        <v>385</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>69</v>
@@ -10157,13 +10182,13 @@
         <v>69</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>423</v>
+        <v>69</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>424</v>
+        <v>69</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>69</v>
@@ -10181,7 +10206,7 @@
         <v>69</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>70</v>
@@ -10196,9 +10221,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10212,7 +10237,7 @@
         <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>69</v>
@@ -10221,19 +10246,19 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>428</v>
+        <v>243</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>429</v>
+        <v>244</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>430</v>
+        <v>245</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>431</v>
+        <v>246</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>69</v>
@@ -10282,7 +10307,7 @@
         <v>69</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>432</v>
+        <v>247</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>70</v>
@@ -10294,12 +10319,12 @@
         <v>89</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>433</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10313,7 +10338,7 @@
         <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>69</v>
@@ -10322,19 +10347,19 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>435</v>
+        <v>208</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>69</v>
@@ -10359,13 +10384,13 @@
         <v>69</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>69</v>
+        <v>416</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>69</v>
+        <v>417</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>69</v>
@@ -10383,7 +10408,7 @@
         <v>69</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>70</v>
@@ -10395,12 +10420,12 @@
         <v>89</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>441</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10411,10 +10436,10 @@
         <v>70</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>69</v>
@@ -10423,20 +10448,16 @@
         <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>69</v>
       </c>
@@ -10484,24 +10505,24 @@
         <v>69</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>441</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10521,23 +10542,19 @@
         <v>69</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>451</v>
+        <v>92</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>69</v>
       </c>
@@ -10585,7 +10602,7 @@
         <v>69</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>455</v>
+        <v>94</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>70</v>
@@ -10594,26 +10611,26 @@
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>456</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>69</v>
@@ -10622,23 +10639,21 @@
         <v>69</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>450</v>
+        <v>97</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>458</v>
+        <v>98</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>459</v>
+        <v>99</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>69</v>
       </c>
@@ -10674,35 +10689,641 @@
         <v>69</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>462</v>
+        <v>104</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI89" t="s" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
         <v>456</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI89">
+  <autoFilter ref="A1:AI95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10712,7 +11333,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI88">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
